--- a/Variablen Übersicht.xlsx
+++ b/Variablen Übersicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcwgruppe-my.sharepoint.com/personal/537894_fom-net_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janhenricover/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADCC4BD7-8B23-0744-9FBB-3FB2DA3395BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF51629-BA40-1D47-98F8-B9B30E202506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="26980" windowHeight="16900" xr2:uid="{F32EEC16-A678-2141-BE1B-A49B60B1CF7D}"/>
+    <workbookView xWindow="2100" yWindow="1380" windowWidth="26980" windowHeight="16900" xr2:uid="{F32EEC16-A678-2141-BE1B-A49B60B1CF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Typ</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>WName</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Name einer Waffe</t>
+  </si>
+  <si>
+    <t>Wschaden</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>(Grund-)Schaden einer Waffe - ohne Stärkebonus</t>
+  </si>
+  <si>
+    <t>Schadensart</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Normaler oder rüstungsunabhängiger Schaden (TRUE = Rüstung zählt)</t>
+  </si>
+  <si>
+    <t>Stärkeeinfluss</t>
+  </si>
+  <si>
+    <t>Zählt der Stärkebonus (TRUE = ja)</t>
   </si>
 </sst>
 </file>
@@ -95,11 +131,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DF600C6-BA30-2542-B060-454662C01D24}" name="Tabelle1" displayName="Tabelle1" ref="A1:B2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{2DF600C6-BA30-2542-B060-454662C01D24}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DF600C6-BA30-2542-B060-454662C01D24}" name="Tabelle1" displayName="Tabelle1" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{2DF600C6-BA30-2542-B060-454662C01D24}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{257B495E-1627-8B4A-9E8A-59709D1908B5}" name="Name"/>
     <tableColumn id="2" xr3:uid="{2B0C45CC-CBD0-8E4E-A717-542021E4952C}" name="Typ"/>
+    <tableColumn id="3" xr3:uid="{7141EE96-4DDF-384F-A5FF-3F1798BC2BA2}" name="Erklärung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -402,23 +439,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A164C-7941-A54E-89D7-149369DB3197}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="140.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
